--- a/Desktop/New folder/Test.xlsx
+++ b/Desktop/New folder/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rawjan\Desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rawjan\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC320A24-F538-4BD8-9A9E-E6B92203F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD093F97-763D-4B54-986B-C09646CEBD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,6 +453,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
